--- a/screenshots/PokemonLegendsCelebi/PokeDex.xlsx
+++ b/screenshots/PokemonLegendsCelebi/PokeDex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwg11\PLC_Polished\screenshots\PokemonLegendsCelebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A147AA-E36A-4B6F-8763-981A4B9187A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238276D7-3887-4FBE-A4EC-01D28DDC7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{64765D12-A245-44E0-8473-F56FA5BDDDC6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="908">
   <si>
     <t xml:space="preserve">cyndaquil		</t>
   </si>
@@ -2721,15 +2721,56 @@
   </si>
   <si>
     <t>E-Sy</t>
+  </si>
+  <si>
+    <t>matdemo</t>
+  </si>
+  <si>
+    <t>sirwhibbles</t>
+  </si>
+  <si>
+    <t>supasanti</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>self-made</t>
+  </si>
+  <si>
+    <t>azure keys</t>
+  </si>
+  <si>
+    <t>retro</t>
+  </si>
+  <si>
+    <t>yES</t>
+  </si>
+  <si>
+    <t>AdaptfromLennyOliveira</t>
+  </si>
+  <si>
+    <t>Pokets3</t>
+  </si>
+  <si>
+    <t>modified from _</t>
+  </si>
+  <si>
+    <t>PKMNTrainerRick</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2817,7 +2858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2838,7 +2879,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12272,15 +12314,15 @@
   <dimension ref="A2:K505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
+      <pane ySplit="3" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
@@ -12740,8 +12782,24 @@
       <c r="B19" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="F19" s="3"/>
+      <c r="C19" t="s">
+        <v>893</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="E19" t="s">
+        <v>873</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G19" t="s">
+        <v>873</v>
+      </c>
+      <c r="H19" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -13088,8 +13146,24 @@
       <c r="B33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="F33" s="3"/>
+      <c r="C33" t="s">
+        <v>896</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="E33" t="s">
+        <v>873</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G33" t="s">
+        <v>873</v>
+      </c>
+      <c r="H33" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34">
@@ -13098,8 +13172,24 @@
       <c r="B34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="F34" s="3"/>
+      <c r="C34" t="s">
+        <v>898</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="E34" t="s">
+        <v>873</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G34" t="s">
+        <v>873</v>
+      </c>
+      <c r="H34" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -13108,8 +13198,24 @@
       <c r="B35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="F35" s="3"/>
+      <c r="C35" t="s">
+        <v>899</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="E35" t="s">
+        <v>873</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G35" t="s">
+        <v>873</v>
+      </c>
+      <c r="H35" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
@@ -13222,8 +13328,24 @@
       <c r="B40" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="F40" s="3"/>
+      <c r="C40" t="s">
+        <v>899</v>
+      </c>
+      <c r="D40" t="s">
+        <v>899</v>
+      </c>
+      <c r="E40" t="s">
+        <v>873</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G40" t="s">
+        <v>873</v>
+      </c>
+      <c r="H40" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
@@ -13336,8 +13458,24 @@
       <c r="B45" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="F45" s="3"/>
+      <c r="C45" t="s">
+        <v>884</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="E45" t="s">
+        <v>873</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G45" t="s">
+        <v>873</v>
+      </c>
+      <c r="H45" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
@@ -13346,8 +13484,24 @@
       <c r="B46" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="F46" s="3"/>
+      <c r="C46" t="s">
+        <v>884</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="E46" t="s">
+        <v>873</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G46" t="s">
+        <v>873</v>
+      </c>
+      <c r="H46" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -13356,8 +13510,24 @@
       <c r="B47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="F47" s="3"/>
+      <c r="C47" t="s">
+        <v>873</v>
+      </c>
+      <c r="D47" t="s">
+        <v>873</v>
+      </c>
+      <c r="E47" t="s">
+        <v>873</v>
+      </c>
+      <c r="F47" t="s">
+        <v>873</v>
+      </c>
+      <c r="G47" t="s">
+        <v>873</v>
+      </c>
+      <c r="H47" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -13366,8 +13536,24 @@
       <c r="B48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="F48" s="3"/>
+      <c r="C48" t="s">
+        <v>873</v>
+      </c>
+      <c r="D48" t="s">
+        <v>873</v>
+      </c>
+      <c r="E48" t="s">
+        <v>873</v>
+      </c>
+      <c r="F48" t="s">
+        <v>873</v>
+      </c>
+      <c r="G48" t="s">
+        <v>873</v>
+      </c>
+      <c r="H48" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
@@ -13376,8 +13562,24 @@
       <c r="B49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="F49" s="3"/>
+      <c r="C49" t="s">
+        <v>873</v>
+      </c>
+      <c r="D49" t="s">
+        <v>873</v>
+      </c>
+      <c r="E49" t="s">
+        <v>873</v>
+      </c>
+      <c r="F49" t="s">
+        <v>873</v>
+      </c>
+      <c r="G49" t="s">
+        <v>873</v>
+      </c>
+      <c r="H49" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -13386,8 +13588,24 @@
       <c r="B50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="F50" s="3"/>
+      <c r="C50" t="s">
+        <v>873</v>
+      </c>
+      <c r="D50" t="s">
+        <v>873</v>
+      </c>
+      <c r="E50" t="s">
+        <v>873</v>
+      </c>
+      <c r="F50" t="s">
+        <v>873</v>
+      </c>
+      <c r="G50" t="s">
+        <v>873</v>
+      </c>
+      <c r="H50" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51">
@@ -13396,8 +13614,24 @@
       <c r="B51" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="F51" s="3"/>
+      <c r="C51" t="s">
+        <v>873</v>
+      </c>
+      <c r="D51" t="s">
+        <v>873</v>
+      </c>
+      <c r="E51" t="s">
+        <v>873</v>
+      </c>
+      <c r="F51" t="s">
+        <v>873</v>
+      </c>
+      <c r="G51" t="s">
+        <v>873</v>
+      </c>
+      <c r="H51" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -13406,8 +13640,24 @@
       <c r="B52" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="F52" s="3"/>
+      <c r="C52" t="s">
+        <v>900</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="E52" t="s">
+        <v>873</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G52" t="s">
+        <v>873</v>
+      </c>
+      <c r="H52" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
@@ -13416,8 +13666,24 @@
       <c r="B53" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="F53" s="3"/>
+      <c r="C53" t="s">
+        <v>873</v>
+      </c>
+      <c r="D53" t="s">
+        <v>873</v>
+      </c>
+      <c r="E53" t="s">
+        <v>873</v>
+      </c>
+      <c r="F53" t="s">
+        <v>873</v>
+      </c>
+      <c r="G53" t="s">
+        <v>873</v>
+      </c>
+      <c r="H53" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -13426,8 +13692,24 @@
       <c r="B54" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="F54" s="3"/>
+      <c r="C54" t="s">
+        <v>873</v>
+      </c>
+      <c r="D54" t="s">
+        <v>873</v>
+      </c>
+      <c r="E54" t="s">
+        <v>873</v>
+      </c>
+      <c r="F54" t="s">
+        <v>873</v>
+      </c>
+      <c r="G54" t="s">
+        <v>873</v>
+      </c>
+      <c r="H54" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
@@ -13436,8 +13718,24 @@
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="F55" s="3"/>
+      <c r="C55" t="s">
+        <v>873</v>
+      </c>
+      <c r="D55" t="s">
+        <v>873</v>
+      </c>
+      <c r="E55" t="s">
+        <v>873</v>
+      </c>
+      <c r="F55" t="s">
+        <v>873</v>
+      </c>
+      <c r="G55" t="s">
+        <v>873</v>
+      </c>
+      <c r="H55" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56">
@@ -13446,8 +13744,24 @@
       <c r="B56" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="F56" s="3"/>
+      <c r="C56" t="s">
+        <v>873</v>
+      </c>
+      <c r="D56" t="s">
+        <v>873</v>
+      </c>
+      <c r="E56" t="s">
+        <v>873</v>
+      </c>
+      <c r="F56" t="s">
+        <v>873</v>
+      </c>
+      <c r="G56" t="s">
+        <v>873</v>
+      </c>
+      <c r="H56" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
@@ -13456,8 +13770,24 @@
       <c r="B57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="F57" s="3"/>
+      <c r="C57" t="s">
+        <v>873</v>
+      </c>
+      <c r="D57" t="s">
+        <v>873</v>
+      </c>
+      <c r="E57" t="s">
+        <v>873</v>
+      </c>
+      <c r="F57" t="s">
+        <v>873</v>
+      </c>
+      <c r="G57" t="s">
+        <v>873</v>
+      </c>
+      <c r="H57" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
@@ -13466,8 +13796,24 @@
       <c r="B58" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="F58" s="3"/>
+      <c r="C58" t="s">
+        <v>873</v>
+      </c>
+      <c r="D58" t="s">
+        <v>873</v>
+      </c>
+      <c r="E58" t="s">
+        <v>873</v>
+      </c>
+      <c r="F58" t="s">
+        <v>873</v>
+      </c>
+      <c r="G58" t="s">
+        <v>873</v>
+      </c>
+      <c r="H58" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59">
@@ -13476,8 +13822,24 @@
       <c r="B59" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="F59" s="3"/>
+      <c r="C59" t="s">
+        <v>873</v>
+      </c>
+      <c r="D59" t="s">
+        <v>873</v>
+      </c>
+      <c r="E59" t="s">
+        <v>873</v>
+      </c>
+      <c r="F59" t="s">
+        <v>873</v>
+      </c>
+      <c r="G59" t="s">
+        <v>873</v>
+      </c>
+      <c r="H59" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
@@ -13486,8 +13848,24 @@
       <c r="B60" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="F60" s="3"/>
+      <c r="C60" t="s">
+        <v>873</v>
+      </c>
+      <c r="D60" t="s">
+        <v>873</v>
+      </c>
+      <c r="E60" t="s">
+        <v>873</v>
+      </c>
+      <c r="F60" t="s">
+        <v>873</v>
+      </c>
+      <c r="G60" t="s">
+        <v>873</v>
+      </c>
+      <c r="H60" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -13496,8 +13874,24 @@
       <c r="B61" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="F61" s="3"/>
+      <c r="C61" t="s">
+        <v>873</v>
+      </c>
+      <c r="D61" t="s">
+        <v>873</v>
+      </c>
+      <c r="E61" t="s">
+        <v>873</v>
+      </c>
+      <c r="F61" t="s">
+        <v>873</v>
+      </c>
+      <c r="G61" t="s">
+        <v>873</v>
+      </c>
+      <c r="H61" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
@@ -13532,8 +13926,24 @@
       <c r="B63" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="F63" s="3"/>
+      <c r="C63" t="s">
+        <v>873</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E63" t="s">
+        <v>873</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G63" t="s">
+        <v>873</v>
+      </c>
+      <c r="H63" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -13542,8 +13952,24 @@
       <c r="B64" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="F64" s="3"/>
+      <c r="C64" t="s">
+        <v>892</v>
+      </c>
+      <c r="D64" t="s">
+        <v>892</v>
+      </c>
+      <c r="E64" t="s">
+        <v>901</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G64" t="s">
+        <v>873</v>
+      </c>
+      <c r="H64" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65">
@@ -13578,8 +14004,24 @@
       <c r="B66" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="F66" s="3"/>
+      <c r="C66" t="s">
+        <v>892</v>
+      </c>
+      <c r="D66" t="s">
+        <v>892</v>
+      </c>
+      <c r="E66" t="s">
+        <v>873</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G66" t="s">
+        <v>873</v>
+      </c>
+      <c r="H66" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
@@ -13614,8 +14056,24 @@
       <c r="B68" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="F68" s="3"/>
+      <c r="C68" t="s">
+        <v>873</v>
+      </c>
+      <c r="D68" t="s">
+        <v>873</v>
+      </c>
+      <c r="E68" t="s">
+        <v>873</v>
+      </c>
+      <c r="F68" t="s">
+        <v>873</v>
+      </c>
+      <c r="G68" t="s">
+        <v>873</v>
+      </c>
+      <c r="H68" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
@@ -13624,8 +14082,24 @@
       <c r="B69" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="F69" s="3"/>
+      <c r="C69" t="s">
+        <v>873</v>
+      </c>
+      <c r="D69" t="s">
+        <v>873</v>
+      </c>
+      <c r="E69" t="s">
+        <v>873</v>
+      </c>
+      <c r="F69" t="s">
+        <v>873</v>
+      </c>
+      <c r="G69" t="s">
+        <v>873</v>
+      </c>
+      <c r="H69" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70">
@@ -13634,8 +14108,24 @@
       <c r="B70" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="F70" s="3"/>
+      <c r="C70" t="s">
+        <v>873</v>
+      </c>
+      <c r="D70" t="s">
+        <v>873</v>
+      </c>
+      <c r="E70" t="s">
+        <v>873</v>
+      </c>
+      <c r="F70" t="s">
+        <v>873</v>
+      </c>
+      <c r="G70" t="s">
+        <v>873</v>
+      </c>
+      <c r="H70" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -13644,8 +14134,24 @@
       <c r="B71" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="F71" s="3"/>
+      <c r="C71" t="s">
+        <v>873</v>
+      </c>
+      <c r="D71" t="s">
+        <v>873</v>
+      </c>
+      <c r="E71" t="s">
+        <v>873</v>
+      </c>
+      <c r="F71" t="s">
+        <v>873</v>
+      </c>
+      <c r="G71" t="s">
+        <v>873</v>
+      </c>
+      <c r="H71" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
@@ -13654,8 +14160,24 @@
       <c r="B72" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="F72" s="3"/>
+      <c r="C72" t="s">
+        <v>873</v>
+      </c>
+      <c r="D72" t="s">
+        <v>873</v>
+      </c>
+      <c r="E72" t="s">
+        <v>873</v>
+      </c>
+      <c r="F72" t="s">
+        <v>873</v>
+      </c>
+      <c r="G72" t="s">
+        <v>873</v>
+      </c>
+      <c r="H72" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73">
@@ -13664,8 +14186,24 @@
       <c r="B73" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="F73" s="3"/>
+      <c r="C73" t="s">
+        <v>873</v>
+      </c>
+      <c r="D73" t="s">
+        <v>873</v>
+      </c>
+      <c r="E73" t="s">
+        <v>873</v>
+      </c>
+      <c r="F73" t="s">
+        <v>873</v>
+      </c>
+      <c r="G73" t="s">
+        <v>873</v>
+      </c>
+      <c r="H73" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
@@ -13674,8 +14212,24 @@
       <c r="B74" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="F74" s="3"/>
+      <c r="C74" t="s">
+        <v>873</v>
+      </c>
+      <c r="D74" t="s">
+        <v>873</v>
+      </c>
+      <c r="E74" t="s">
+        <v>873</v>
+      </c>
+      <c r="F74" t="s">
+        <v>873</v>
+      </c>
+      <c r="G74" t="s">
+        <v>873</v>
+      </c>
+      <c r="H74" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
@@ -13684,8 +14238,24 @@
       <c r="B75" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="F75" s="3"/>
+      <c r="C75" t="s">
+        <v>873</v>
+      </c>
+      <c r="D75" t="s">
+        <v>873</v>
+      </c>
+      <c r="E75" t="s">
+        <v>873</v>
+      </c>
+      <c r="F75" t="s">
+        <v>873</v>
+      </c>
+      <c r="G75" t="s">
+        <v>873</v>
+      </c>
+      <c r="H75" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
@@ -13694,8 +14264,24 @@
       <c r="B76" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="F76" s="3"/>
+      <c r="C76" t="s">
+        <v>873</v>
+      </c>
+      <c r="D76" t="s">
+        <v>873</v>
+      </c>
+      <c r="E76" t="s">
+        <v>873</v>
+      </c>
+      <c r="F76" t="s">
+        <v>873</v>
+      </c>
+      <c r="G76" t="s">
+        <v>873</v>
+      </c>
+      <c r="H76" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
@@ -13704,8 +14290,24 @@
       <c r="B77" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="F77" s="3"/>
+      <c r="C77" t="s">
+        <v>873</v>
+      </c>
+      <c r="D77" t="s">
+        <v>873</v>
+      </c>
+      <c r="E77" t="s">
+        <v>873</v>
+      </c>
+      <c r="F77" t="s">
+        <v>873</v>
+      </c>
+      <c r="G77" t="s">
+        <v>873</v>
+      </c>
+      <c r="H77" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78">
@@ -13714,8 +14316,24 @@
       <c r="B78" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="F78" s="3"/>
+      <c r="C78" t="s">
+        <v>873</v>
+      </c>
+      <c r="D78" t="s">
+        <v>873</v>
+      </c>
+      <c r="E78" t="s">
+        <v>873</v>
+      </c>
+      <c r="F78" t="s">
+        <v>873</v>
+      </c>
+      <c r="G78" t="s">
+        <v>873</v>
+      </c>
+      <c r="H78" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
@@ -13724,8 +14342,24 @@
       <c r="B79" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="F79" s="3"/>
+      <c r="C79" t="s">
+        <v>873</v>
+      </c>
+      <c r="D79" t="s">
+        <v>873</v>
+      </c>
+      <c r="E79" t="s">
+        <v>873</v>
+      </c>
+      <c r="F79" t="s">
+        <v>873</v>
+      </c>
+      <c r="G79" t="s">
+        <v>873</v>
+      </c>
+      <c r="H79" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80">
@@ -13734,80 +14368,208 @@
       <c r="B80" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>873</v>
+      </c>
+      <c r="D80" t="s">
+        <v>873</v>
+      </c>
+      <c r="E80" t="s">
+        <v>873</v>
+      </c>
+      <c r="F80" t="s">
+        <v>873</v>
+      </c>
+      <c r="G80" t="s">
+        <v>873</v>
+      </c>
+      <c r="H80" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>196</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>884</v>
+      </c>
+      <c r="D81" t="s">
+        <v>884</v>
+      </c>
+      <c r="E81" t="s">
+        <v>873</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G81" t="s">
+        <v>873</v>
+      </c>
+      <c r="H81" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>48</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>885</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E82" t="s">
+        <v>885</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G82" t="s">
+        <v>885</v>
+      </c>
+      <c r="H82" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>117</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>885</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E83" t="s">
+        <v>885</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G83" t="s">
+        <v>885</v>
+      </c>
+      <c r="H83" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>50</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>903</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="E84" t="s">
+        <v>873</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G84" t="s">
+        <v>873</v>
+      </c>
+      <c r="H84" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>80</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>885</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E85" t="s">
+        <v>885</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G85" t="s">
+        <v>885</v>
+      </c>
+      <c r="H85" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>230</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D86" s="4"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>898</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="E86" t="s">
+        <v>885</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G86" t="s">
+        <v>885</v>
+      </c>
+      <c r="H86" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>232</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D87" s="4"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>904</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E87" t="s">
+        <v>885</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G87" t="s">
+        <v>885</v>
+      </c>
+      <c r="H87" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>8</v>
       </c>
@@ -13817,7 +14579,7 @@
       <c r="D88" s="4"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>248</v>
       </c>
@@ -13827,7 +14589,7 @@
       <c r="D89" s="4"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -13837,17 +14599,33 @@
       <c r="D90" s="4"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>176</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D91" s="4"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>885</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E91" t="s">
+        <v>885</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G91" t="s">
+        <v>885</v>
+      </c>
+      <c r="H91" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>237</v>
       </c>
@@ -13857,7 +14635,7 @@
       <c r="D92" s="4"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>221</v>
       </c>
@@ -13867,77 +14645,189 @@
       <c r="D93" s="4"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>885</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E94" t="s">
+        <v>885</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G94" t="s">
+        <v>885</v>
+      </c>
+      <c r="H94" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>89</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D95" s="4"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>885</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E95" t="s">
+        <v>885</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G95" t="s">
+        <v>885</v>
+      </c>
+      <c r="H95" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>91</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>885</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E96" t="s">
+        <v>885</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G96" t="s">
+        <v>885</v>
+      </c>
+      <c r="H96" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>250</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>885</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E97" t="s">
+        <v>885</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G97" t="s">
+        <v>885</v>
+      </c>
+      <c r="H97" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>159</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>885</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E98" t="s">
+        <v>885</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G98" t="s">
+        <v>885</v>
+      </c>
+      <c r="H98" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>191</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>885</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E99" t="s">
+        <v>885</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G99" t="s">
+        <v>885</v>
+      </c>
+      <c r="H99" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>190</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>885</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E100" t="s">
+        <v>885</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G100" t="s">
+        <v>885</v>
+      </c>
+      <c r="H100" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>12</v>
       </c>
@@ -13947,7 +14837,7 @@
       <c r="D101" s="4"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>236</v>
       </c>
@@ -13957,7 +14847,7 @@
       <c r="D102" s="4"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>4</v>
       </c>
@@ -13967,7 +14857,7 @@
       <c r="D103" s="4"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>238</v>
       </c>
@@ -13977,7 +14867,7 @@
       <c r="D104" s="4"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>199</v>
       </c>
@@ -13987,27 +14877,59 @@
       <c r="D105" s="4"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>30</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="4"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>885</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E106" t="s">
+        <v>885</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G106" t="s">
+        <v>885</v>
+      </c>
+      <c r="H106" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>121</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D107" s="4"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
+        <v>885</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E107" t="s">
+        <v>885</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G107" t="s">
+        <v>885</v>
+      </c>
+      <c r="H107" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>154</v>
       </c>
@@ -14017,45 +14939,109 @@
       <c r="D108" s="4"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>109</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D109" s="4"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>885</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E109" t="s">
+        <v>885</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G109" t="s">
+        <v>885</v>
+      </c>
+      <c r="H109" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>56</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D110" s="4"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>885</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E110" t="s">
+        <v>885</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G110" t="s">
+        <v>885</v>
+      </c>
+      <c r="H110" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>101</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="4"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>885</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E111" t="s">
+        <v>885</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G111" t="s">
+        <v>885</v>
+      </c>
+      <c r="H111" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>103</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D112" s="4"/>
-      <c r="F112" s="3"/>
+      <c r="C112" t="s">
+        <v>885</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E112" t="s">
+        <v>885</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G112" t="s">
+        <v>885</v>
+      </c>
+      <c r="H112" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="113" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
@@ -14100,8 +15086,24 @@
       <c r="B115" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D115" s="4"/>
-      <c r="F115" s="3"/>
+      <c r="C115" t="s">
+        <v>885</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E115" t="s">
+        <v>885</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G115" t="s">
+        <v>885</v>
+      </c>
+      <c r="H115" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="116" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116">
@@ -14110,8 +15112,24 @@
       <c r="B116" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D116" s="4"/>
-      <c r="F116" s="3"/>
+      <c r="C116" t="s">
+        <v>885</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E116" t="s">
+        <v>885</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G116" t="s">
+        <v>885</v>
+      </c>
+      <c r="H116" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
@@ -14120,8 +15138,24 @@
       <c r="B117" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D117" s="4"/>
-      <c r="F117" s="3"/>
+      <c r="C117" t="s">
+        <v>885</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E117" t="s">
+        <v>885</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G117" t="s">
+        <v>885</v>
+      </c>
+      <c r="H117" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="118" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
@@ -14130,8 +15164,24 @@
       <c r="B118" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D118" s="4"/>
-      <c r="F118" s="3"/>
+      <c r="C118" t="s">
+        <v>885</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E118" t="s">
+        <v>885</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G118" t="s">
+        <v>885</v>
+      </c>
+      <c r="H118" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119">
@@ -14140,8 +15190,24 @@
       <c r="B119" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D119" s="4"/>
-      <c r="F119" s="3"/>
+      <c r="C119" t="s">
+        <v>885</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E119" t="s">
+        <v>885</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G119" t="s">
+        <v>885</v>
+      </c>
+      <c r="H119" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
@@ -14186,8 +15252,24 @@
       <c r="B122" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D122" s="4"/>
-      <c r="F122" s="3"/>
+      <c r="C122" t="s">
+        <v>885</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E122" t="s">
+        <v>885</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G122" t="s">
+        <v>885</v>
+      </c>
+      <c r="H122" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="123" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
@@ -14216,8 +15298,24 @@
       <c r="B125" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D125" s="4"/>
-      <c r="F125" s="3"/>
+      <c r="C125" t="s">
+        <v>885</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E125" t="s">
+        <v>885</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G125" t="s">
+        <v>885</v>
+      </c>
+      <c r="H125" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
@@ -14226,8 +15324,24 @@
       <c r="B126" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D126" s="4"/>
-      <c r="F126" s="3"/>
+      <c r="C126" t="s">
+        <v>885</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E126" t="s">
+        <v>885</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G126" t="s">
+        <v>885</v>
+      </c>
+      <c r="H126" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127">
@@ -14236,8 +15350,24 @@
       <c r="B127" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="4"/>
-      <c r="F127" s="3"/>
+      <c r="C127" t="s">
+        <v>885</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E127" t="s">
+        <v>885</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G127" t="s">
+        <v>885</v>
+      </c>
+      <c r="H127" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="128" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
@@ -14246,170 +15376,442 @@
       <c r="B128" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D128" s="4"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
+        <v>885</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E128" t="s">
+        <v>885</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G128" t="s">
+        <v>885</v>
+      </c>
+      <c r="H128" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>116</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D129" s="4"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>885</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E129" t="s">
+        <v>885</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G129" t="s">
+        <v>885</v>
+      </c>
+      <c r="H129" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>112</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D130" s="4"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>885</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E130" t="s">
+        <v>885</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G130" t="s">
+        <v>885</v>
+      </c>
+      <c r="H130" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>113</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D131" s="4"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
+        <v>885</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E131" t="s">
+        <v>885</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G131" t="s">
+        <v>885</v>
+      </c>
+      <c r="H131" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>72</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D132" s="4"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>885</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E132" t="s">
+        <v>885</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G132" t="s">
+        <v>885</v>
+      </c>
+      <c r="H132" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>73</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D133" s="4"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
+        <v>885</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E133" t="s">
+        <v>885</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G133" t="s">
+        <v>885</v>
+      </c>
+      <c r="H133" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>74</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D134" s="4"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
+        <v>885</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E134" t="s">
+        <v>885</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G134" t="s">
+        <v>885</v>
+      </c>
+      <c r="H134" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>185</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D135" s="4"/>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
+        <v>885</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E135" t="s">
+        <v>885</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G135" t="s">
+        <v>885</v>
+      </c>
+      <c r="H135" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>46</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D136" s="4"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
+        <v>885</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E136" t="s">
+        <v>885</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G136" t="s">
+        <v>885</v>
+      </c>
+      <c r="H136" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>188</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D137" s="4"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
+        <v>885</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E137" t="s">
+        <v>885</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G137" t="s">
+        <v>885</v>
+      </c>
+      <c r="H137" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>147</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D138" s="4"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
+        <v>885</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E138" t="s">
+        <v>885</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G138" t="s">
+        <v>885</v>
+      </c>
+      <c r="H138" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>150</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D139" s="4"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
+        <v>885</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E139" t="s">
+        <v>885</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G139" t="s">
+        <v>885</v>
+      </c>
+      <c r="H139" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>134</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D140" s="4"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
+        <v>885</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E140" t="s">
+        <v>885</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G140" t="s">
+        <v>885</v>
+      </c>
+      <c r="H140" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D141" s="4"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
+        <v>885</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E141" t="s">
+        <v>885</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G141" t="s">
+        <v>885</v>
+      </c>
+      <c r="H141" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>195</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D142" s="4"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
+        <v>885</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E142" t="s">
+        <v>885</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G142" t="s">
+        <v>885</v>
+      </c>
+      <c r="H142" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>160</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D143" s="4"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
+        <v>885</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E143" t="s">
+        <v>885</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G143" t="s">
+        <v>885</v>
+      </c>
+      <c r="H143" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>161</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D144" s="4"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
+        <v>885</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E144" t="s">
+        <v>885</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G144" t="s">
+        <v>885</v>
+      </c>
+      <c r="H144" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>198</v>
       </c>
@@ -14419,117 +15821,293 @@
       <c r="D145" s="4"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>93</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D146" s="4"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
+        <v>885</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E146" t="s">
+        <v>885</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G146" t="s">
+        <v>885</v>
+      </c>
+      <c r="H146" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>77</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D147" s="4"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>885</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E147" t="s">
+        <v>885</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G147" t="s">
+        <v>885</v>
+      </c>
+      <c r="H147" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>158</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D148" s="4"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
+        <v>885</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E148" t="s">
+        <v>885</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G148" t="s">
+        <v>885</v>
+      </c>
+      <c r="H148" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>145</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D149" s="4"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
+        <v>885</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E149" t="s">
+        <v>885</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G149" t="s">
+        <v>885</v>
+      </c>
+      <c r="H149" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>25</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="4"/>
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>885</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E150" t="s">
+        <v>885</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G150" t="s">
+        <v>885</v>
+      </c>
+      <c r="H150" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>23</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D151" s="4"/>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
+        <v>885</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E151" t="s">
+        <v>885</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G151" t="s">
+        <v>885</v>
+      </c>
+      <c r="H151" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>22</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D152" s="4"/>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
+        <v>885</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E152" t="s">
+        <v>885</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G152" t="s">
+        <v>885</v>
+      </c>
+      <c r="H152" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>24</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D153" s="4"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
+        <v>885</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E153" t="s">
+        <v>885</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G153" t="s">
+        <v>885</v>
+      </c>
+      <c r="H153" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>29</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D154" s="4"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C154" t="s">
+        <v>885</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E154" t="s">
+        <v>885</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G154" t="s">
+        <v>885</v>
+      </c>
+      <c r="H154" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>187</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D155" s="4"/>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
+        <v>885</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E155" t="s">
+        <v>885</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G155" t="s">
+        <v>885</v>
+      </c>
+      <c r="H155" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>82</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D156" s="4"/>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
+        <v>885</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E156" t="s">
+        <v>885</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G156" t="s">
+        <v>885</v>
+      </c>
+      <c r="H156" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>9</v>
       </c>
@@ -14539,7 +16117,7 @@
       <c r="D157" s="4"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>174</v>
       </c>
@@ -14549,25 +16127,57 @@
       <c r="D158" s="4"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>38</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D159" s="4"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C159" t="s">
+        <v>885</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E159" t="s">
+        <v>885</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G159" t="s">
+        <v>885</v>
+      </c>
+      <c r="H159" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>39</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D160" s="4"/>
-      <c r="F160" s="3"/>
+      <c r="C160" t="s">
+        <v>885</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E160" t="s">
+        <v>885</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G160" t="s">
+        <v>885</v>
+      </c>
+      <c r="H160" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="161" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
@@ -14576,8 +16186,24 @@
       <c r="B161" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D161" s="4"/>
-      <c r="F161" s="3"/>
+      <c r="C161" t="s">
+        <v>885</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E161" t="s">
+        <v>885</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G161" t="s">
+        <v>885</v>
+      </c>
+      <c r="H161" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="162" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
@@ -15328,8 +16954,24 @@
       <c r="B193" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D193" s="4"/>
-      <c r="F193" s="3"/>
+      <c r="C193" t="s">
+        <v>894</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="E193" t="s">
+        <v>885</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G193" t="s">
+        <v>885</v>
+      </c>
+      <c r="H193" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="194" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
@@ -15664,8 +17306,24 @@
       <c r="B209" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D209" s="4"/>
-      <c r="F209" s="3"/>
+      <c r="C209" t="s">
+        <v>885</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E209" t="s">
+        <v>885</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G209" t="s">
+        <v>885</v>
+      </c>
+      <c r="H209" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="210" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210">
@@ -16713,75 +18371,87 @@
       <c r="A255" s="1"/>
       <c r="B255" s="3"/>
       <c r="C255" s="10">
-        <f>COUNTA(D4:D254)/COUNTA(B4:B254)</f>
-        <v>0.46215139442231074</v>
+        <f>COUNTA(C4:D254)-(2*COUNTA(B4:B254))</f>
+        <v>-68</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="3"/>
-    </row>
-    <row r="257" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D256" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="E256" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="3"/>
-    </row>
-    <row r="258" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D257" s="11">
+        <v>45266</v>
+      </c>
+      <c r="E257">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="3"/>
     </row>
-    <row r="259" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="3"/>
     </row>
-    <row r="260" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="3"/>
     </row>
-    <row r="261" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="3"/>
     </row>
-    <row r="262" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="3"/>
     </row>
-    <row r="263" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="3"/>
     </row>
-    <row r="264" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="3"/>
     </row>
-    <row r="265" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="3"/>
     </row>
-    <row r="266" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="3"/>
     </row>
-    <row r="267" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="3"/>
     </row>
-    <row r="268" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="3"/>
     </row>
-    <row r="269" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="3"/>
     </row>
-    <row r="272" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="3"/>
     </row>

--- a/screenshots/PokemonLegendsCelebi/PokeDex.xlsx
+++ b/screenshots/PokemonLegendsCelebi/PokeDex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwg11\PLC_Polished\screenshots\PokemonLegendsCelebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238276D7-3887-4FBE-A4EC-01D28DDC7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B403B979-2AF2-4BC1-988A-9C1DE4514861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{64765D12-A245-44E0-8473-F56FA5BDDDC6}"/>
+    <workbookView xWindow="3430" yWindow="460" windowWidth="21300" windowHeight="14820" activeTab="1" xr2:uid="{64765D12-A245-44E0-8473-F56FA5BDDDC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Dex" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="921">
   <si>
     <t xml:space="preserve">cyndaquil		</t>
   </si>
@@ -2763,6 +2763,45 @@
   </si>
   <si>
     <t>left</t>
+  </si>
+  <si>
+    <t>I did</t>
+  </si>
+  <si>
+    <t>fokkos92</t>
+  </si>
+  <si>
+    <t>theymadememakethisac</t>
+  </si>
+  <si>
+    <t>fokkos92 - edit</t>
+  </si>
+  <si>
+    <t>PKMNTrainerRick - edit</t>
+  </si>
+  <si>
+    <t>done pokets3</t>
+  </si>
+  <si>
+    <t>yes ESY</t>
+  </si>
+  <si>
+    <t>PKMNTrainerRick_optimized</t>
+  </si>
+  <si>
+    <t>esy</t>
+  </si>
+  <si>
+    <t>pkmntrainerrick</t>
+  </si>
+  <si>
+    <t>bw3g</t>
+  </si>
+  <si>
+    <t>esy adapt</t>
+  </si>
+  <si>
+    <t>PKMNtrainerrick</t>
   </si>
 </sst>
 </file>
@@ -2858,7 +2897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2881,6 +2920,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12313,17 +12353,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037CB756-8A09-4E44-9A4C-654D0B919B16}">
   <dimension ref="A2:K505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D258" sqref="D258"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
@@ -14576,8 +14616,24 @@
       <c r="B88" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D88" s="4"/>
-      <c r="F88" s="3"/>
+      <c r="C88" t="s">
+        <v>886</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="E88" t="s">
+        <v>885</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G88" t="s">
+        <v>885</v>
+      </c>
+      <c r="H88" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
@@ -14586,8 +14642,24 @@
       <c r="B89" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D89" s="4"/>
-      <c r="F89" s="3"/>
+      <c r="C89" t="s">
+        <v>892</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="E89" t="s">
+        <v>885</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G89" t="s">
+        <v>885</v>
+      </c>
+      <c r="H89" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
@@ -14596,8 +14668,24 @@
       <c r="B90" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D90" s="4"/>
-      <c r="F90" s="3"/>
+      <c r="C90" t="s">
+        <v>898</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="E90" t="s">
+        <v>885</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G90" t="s">
+        <v>885</v>
+      </c>
+      <c r="H90" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
@@ -14632,8 +14720,24 @@
       <c r="B92" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="F92" s="3"/>
+      <c r="C92" t="s">
+        <v>911</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="E92" t="s">
+        <v>885</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G92" t="s">
+        <v>885</v>
+      </c>
+      <c r="H92" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
@@ -14642,8 +14746,24 @@
       <c r="B93" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D93" s="4"/>
-      <c r="F93" s="3"/>
+      <c r="C93" t="s">
+        <v>914</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="E93" t="s">
+        <v>873</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G93" t="s">
+        <v>873</v>
+      </c>
+      <c r="H93" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
@@ -14834,8 +14954,24 @@
       <c r="B101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D101" s="4"/>
-      <c r="F101" s="3"/>
+      <c r="C101" t="s">
+        <v>913</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="E101" t="s">
+        <v>885</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G101" t="s">
+        <v>885</v>
+      </c>
+      <c r="H101" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
@@ -14844,8 +14980,24 @@
       <c r="B102" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="F102" s="3"/>
+      <c r="C102" t="s">
+        <v>885</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="E102" t="s">
+        <v>885</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G102" t="s">
+        <v>885</v>
+      </c>
+      <c r="H102" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103">
@@ -14854,8 +15006,24 @@
       <c r="B103" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="F103" s="3"/>
+      <c r="C103" t="s">
+        <v>886</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E103" t="s">
+        <v>885</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G103" t="s">
+        <v>885</v>
+      </c>
+      <c r="H103" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104">
@@ -14864,8 +15032,24 @@
       <c r="B104" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D104" s="4"/>
-      <c r="F104" s="3"/>
+      <c r="C104" t="s">
+        <v>885</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E104" t="s">
+        <v>885</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G104" t="s">
+        <v>885</v>
+      </c>
+      <c r="H104" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105">
@@ -14874,8 +15058,24 @@
       <c r="B105" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D105" s="4"/>
-      <c r="F105" s="3"/>
+      <c r="C105" t="s">
+        <v>916</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E105" t="s">
+        <v>885</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G105" t="s">
+        <v>885</v>
+      </c>
+      <c r="H105" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
@@ -14936,8 +15136,24 @@
       <c r="B108" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D108" s="4"/>
-      <c r="F108" s="3"/>
+      <c r="C108" t="s">
+        <v>885</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E108" t="s">
+        <v>885</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G108" t="s">
+        <v>885</v>
+      </c>
+      <c r="H108" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109">
@@ -15076,8 +15292,24 @@
       <c r="B114" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D114" s="4"/>
-      <c r="F114" s="3"/>
+      <c r="C114" t="s">
+        <v>909</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="E114" t="s">
+        <v>885</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G114" t="s">
+        <v>885</v>
+      </c>
+      <c r="H114" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="115" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115">
@@ -15242,8 +15474,24 @@
       <c r="B121" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D121" s="4"/>
-      <c r="F121" s="3"/>
+      <c r="C121" t="s">
+        <v>918</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="E121" t="s">
+        <v>885</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G121" t="s">
+        <v>885</v>
+      </c>
+      <c r="H121" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
@@ -15278,8 +15526,24 @@
       <c r="B123" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D123" s="4"/>
-      <c r="F123" s="3"/>
+      <c r="C123" t="s">
+        <v>916</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E123" t="s">
+        <v>885</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G123" t="s">
+        <v>885</v>
+      </c>
+      <c r="H123" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="124" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124">
@@ -15288,8 +15552,24 @@
       <c r="B124" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D124" s="4"/>
-      <c r="F124" s="3"/>
+      <c r="C124" t="s">
+        <v>892</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E124" t="s">
+        <v>885</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G124" t="s">
+        <v>885</v>
+      </c>
+      <c r="H124" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
@@ -15818,8 +16098,24 @@
       <c r="B145" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D145" s="4"/>
-      <c r="F145" s="3"/>
+      <c r="C145" t="s">
+        <v>916</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E145" t="s">
+        <v>885</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G145" t="s">
+        <v>885</v>
+      </c>
+      <c r="H145" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="146" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
@@ -16114,8 +16410,24 @@
       <c r="B157" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="4"/>
-      <c r="F157" s="3"/>
+      <c r="C157" t="s">
+        <v>918</v>
+      </c>
+      <c r="D157" t="s">
+        <v>918</v>
+      </c>
+      <c r="E157" t="s">
+        <v>885</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G157" t="s">
+        <v>885</v>
+      </c>
+      <c r="H157" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="158" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
@@ -16124,8 +16436,24 @@
       <c r="B158" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D158" s="4"/>
-      <c r="F158" s="3"/>
+      <c r="C158" t="s">
+        <v>886</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="E158" t="s">
+        <v>885</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G158" t="s">
+        <v>885</v>
+      </c>
+      <c r="H158" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="159" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
@@ -16628,8 +16956,24 @@
       <c r="B178" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D178" s="4"/>
-      <c r="F178" s="3"/>
+      <c r="C178" t="s">
+        <v>916</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E178" t="s">
+        <v>885</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G178" t="s">
+        <v>885</v>
+      </c>
+      <c r="H178" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="179" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
@@ -16794,8 +17138,24 @@
       <c r="B185" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D185" s="4"/>
-      <c r="F185" s="3"/>
+      <c r="C185" t="s">
+        <v>919</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="E185" t="s">
+        <v>885</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G185" t="s">
+        <v>885</v>
+      </c>
+      <c r="H185" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="186" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
@@ -16944,6 +17304,9 @@
       <c r="B192" s="7" t="s">
         <v>223</v>
       </c>
+      <c r="C192" t="s">
+        <v>884</v>
+      </c>
       <c r="D192" s="4"/>
       <c r="F192" s="3"/>
     </row>
@@ -17886,8 +18249,24 @@
       <c r="B235" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D235" s="4"/>
-      <c r="F235" s="3"/>
+      <c r="C235" t="s">
+        <v>909</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="E235" t="s">
+        <v>885</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G235" t="s">
+        <v>885</v>
+      </c>
+      <c r="H235" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="236" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236">
@@ -18000,8 +18379,24 @@
       <c r="B240" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D240" s="4"/>
-      <c r="F240" s="3"/>
+      <c r="C240" t="s">
+        <v>892</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="E240" t="s">
+        <v>885</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="G240" t="s">
+        <v>885</v>
+      </c>
+      <c r="H240" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="241" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
@@ -18372,7 +18767,7 @@
       <c r="B255" s="3"/>
       <c r="C255" s="10">
         <f>COUNTA(C4:D254)-(2*COUNTA(B4:B254))</f>
-        <v>-68</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -18398,26 +18793,62 @@
     <row r="258" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="3"/>
+      <c r="D258" s="11">
+        <v>45267</v>
+      </c>
+      <c r="E258">
+        <v>64</v>
+      </c>
     </row>
     <row r="259" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="3"/>
+      <c r="D259" s="11">
+        <v>45268</v>
+      </c>
+      <c r="E259">
+        <v>60</v>
+      </c>
     </row>
     <row r="260" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="3"/>
+      <c r="D260" s="11">
+        <v>45271</v>
+      </c>
+      <c r="E260">
+        <v>52</v>
+      </c>
     </row>
     <row r="261" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="3"/>
+      <c r="D261" s="12">
+        <v>45272</v>
+      </c>
+      <c r="E261">
+        <v>48</v>
+      </c>
     </row>
     <row r="262" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="3"/>
+      <c r="D262" s="12">
+        <v>45273</v>
+      </c>
+      <c r="E262">
+        <v>46</v>
+      </c>
     </row>
     <row r="263" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="3"/>
+      <c r="D263" s="12">
+        <v>45274</v>
+      </c>
+      <c r="E263">
+        <v>23</v>
+      </c>
     </row>
     <row r="264" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
